--- a/msd12.xlsx
+++ b/msd12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Documents\GitHub\SCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C04F5-E374-4597-9C08-2FD87C4B719D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D271EC3-EB42-48CE-9898-A1BCBE5C16D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSDynamics_dyrollup" sheetId="2" r:id="rId1"/>
@@ -323,13 +323,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K14" totalsRowShown="0">
-  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -349,13 +343,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -660,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -754,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -768,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>26</v>
       </c>
@@ -805,7 +793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>19</v>
       </c>
@@ -842,7 +830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -856,7 +844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -870,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>26</v>
       </c>
@@ -907,7 +895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
@@ -918,7 +906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>23</v>
       </c>
@@ -941,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>53</v>
       </c>
@@ -1035,7 +1023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>56</v>
       </c>
@@ -1049,7 +1037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>22</v>
       </c>
@@ -1063,7 +1051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>53</v>
       </c>
@@ -1151,7 +1139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>56</v>
       </c>
@@ -1165,7 +1153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>22</v>
       </c>
@@ -1179,7 +1167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>59</v>
       </c>
@@ -1216,7 +1204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>23</v>
       </c>
